--- a/data/tumor-size/AOT00054521-mimic22/AOT00054521_mimic22_tumor-size.xlsx
+++ b/data/tumor-size/AOT00054521-mimic22/AOT00054521_mimic22_tumor-size.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="473" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2917CE9D-1468-43E2-93E8-22CBC5C9F210}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osumc-my.sharepoint.com/personal/wil407_osumc_edu/Documents/BuckeyeBox Data/mimic/data/AOT00054521-mimic22/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="702" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE565E01-035A-44A5-8A38-172BEE3ADF32}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="15">
   <si>
     <t>date</t>
   </si>
@@ -98,12 +103,18 @@
   <si>
     <t>85v1 + Blautia</t>
   </si>
+  <si>
+    <t>Anti-PD1</t>
+  </si>
+  <si>
+    <t>IgG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -463,13 +478,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="H185" sqref="H185"/>
+    <sheetView tabSelected="1" topLeftCell="B161" workbookViewId="0">
+      <selection activeCell="A174" sqref="A174:XFD174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -482,7 +497,7 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45287</v>
       </c>
@@ -531,7 +546,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45287</v>
       </c>
@@ -545,7 +560,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45287</v>
       </c>
@@ -559,7 +574,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45287</v>
       </c>
@@ -573,7 +588,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45287</v>
       </c>
@@ -587,7 +602,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45287</v>
       </c>
@@ -601,7 +616,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45287</v>
       </c>
@@ -615,7 +630,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45287</v>
       </c>
@@ -629,7 +644,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45287</v>
       </c>
@@ -643,7 +658,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45287</v>
       </c>
@@ -657,7 +672,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45287</v>
       </c>
@@ -671,7 +686,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45287</v>
       </c>
@@ -685,7 +700,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45287</v>
       </c>
@@ -699,7 +714,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45287</v>
       </c>
@@ -713,7 +728,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45287</v>
       </c>
@@ -727,7 +742,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45287</v>
       </c>
@@ -741,7 +756,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45287</v>
       </c>
@@ -755,7 +770,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45287</v>
       </c>
@@ -769,7 +784,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45287</v>
       </c>
@@ -783,7 +798,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45287</v>
       </c>
@@ -797,7 +812,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45287</v>
       </c>
@@ -811,7 +826,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45287</v>
       </c>
@@ -825,7 +840,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45287</v>
       </c>
@@ -839,7 +854,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45287</v>
       </c>
@@ -853,7 +868,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45309</v>
       </c>
@@ -870,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45309</v>
       </c>
@@ -887,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45309</v>
       </c>
@@ -904,7 +919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45309</v>
       </c>
@@ -921,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45309</v>
       </c>
@@ -938,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45309</v>
       </c>
@@ -955,7 +970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45309</v>
       </c>
@@ -972,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45309</v>
       </c>
@@ -989,7 +1004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45309</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45309</v>
       </c>
@@ -1023,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45309</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45309</v>
       </c>
@@ -1057,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45309</v>
       </c>
@@ -1074,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45309</v>
       </c>
@@ -1091,7 +1106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45309</v>
       </c>
@@ -1108,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45309</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45309</v>
       </c>
@@ -1142,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45309</v>
       </c>
@@ -1159,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45309</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45309</v>
       </c>
@@ -1193,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45309</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45309</v>
       </c>
@@ -1227,7 +1242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45309</v>
       </c>
@@ -1244,7 +1259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45309</v>
       </c>
@@ -1261,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45313</v>
       </c>
@@ -1275,13 +1290,13 @@
         <v>1</v>
       </c>
       <c r="H50">
+        <v>8.1</v>
+      </c>
+      <c r="I50">
         <v>4.5</v>
       </c>
-      <c r="I50">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45313</v>
       </c>
@@ -1295,13 +1310,13 @@
         <v>1</v>
       </c>
       <c r="H51">
+        <v>6.2</v>
+      </c>
+      <c r="I51">
         <v>3.3</v>
       </c>
-      <c r="I51">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45313</v>
       </c>
@@ -1315,13 +1330,13 @@
         <v>1</v>
       </c>
       <c r="H52">
+        <v>4.7</v>
+      </c>
+      <c r="I52">
         <v>3.4</v>
       </c>
-      <c r="I52">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45313</v>
       </c>
@@ -1335,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="H53">
+        <v>1.8</v>
+      </c>
+      <c r="I53">
         <v>1.7</v>
       </c>
-      <c r="I53">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45313</v>
       </c>
@@ -1361,7 +1376,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45313</v>
       </c>
@@ -1375,13 +1390,13 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I55">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45313</v>
       </c>
@@ -1395,13 +1410,13 @@
         <v>1</v>
       </c>
       <c r="H56">
+        <v>7.5</v>
+      </c>
+      <c r="I56">
         <v>5</v>
       </c>
-      <c r="I56">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45313</v>
       </c>
@@ -1415,13 +1430,13 @@
         <v>1</v>
       </c>
       <c r="H57">
+        <v>7.8</v>
+      </c>
+      <c r="I57">
         <v>4.3</v>
       </c>
-      <c r="I57">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45313</v>
       </c>
@@ -1435,13 +1450,13 @@
         <v>1</v>
       </c>
       <c r="H58">
+        <v>3.5</v>
+      </c>
+      <c r="I58">
         <v>3.1</v>
       </c>
-      <c r="I58">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45313</v>
       </c>
@@ -1455,13 +1470,13 @@
         <v>1</v>
       </c>
       <c r="H59">
+        <v>8.5</v>
+      </c>
+      <c r="I59">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I59">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45313</v>
       </c>
@@ -1475,13 +1490,13 @@
         <v>1</v>
       </c>
       <c r="H60">
+        <v>7.5</v>
+      </c>
+      <c r="I60">
         <v>3.4</v>
       </c>
-      <c r="I60">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45313</v>
       </c>
@@ -1495,13 +1510,13 @@
         <v>1</v>
       </c>
       <c r="H61">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I61">
         <v>3.2</v>
       </c>
-      <c r="I61">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45313</v>
       </c>
@@ -1515,13 +1530,13 @@
         <v>1</v>
       </c>
       <c r="H62">
+        <v>6.3</v>
+      </c>
+      <c r="I62">
         <v>5.2</v>
       </c>
-      <c r="I62">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45313</v>
       </c>
@@ -1535,13 +1550,13 @@
         <v>1</v>
       </c>
       <c r="H63">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I63">
         <v>2.9</v>
       </c>
-      <c r="I63">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45313</v>
       </c>
@@ -1555,13 +1570,13 @@
         <v>1</v>
       </c>
       <c r="H64">
+        <v>1.4</v>
+      </c>
+      <c r="I64">
         <v>1.7</v>
       </c>
-      <c r="I64">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45313</v>
       </c>
@@ -1575,13 +1590,13 @@
         <v>1</v>
       </c>
       <c r="H65">
+        <v>6.5</v>
+      </c>
+      <c r="I65">
         <v>5.9</v>
       </c>
-      <c r="I65">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45313</v>
       </c>
@@ -1595,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="H66">
+        <v>7.8</v>
+      </c>
+      <c r="I66">
         <v>3.2</v>
       </c>
-      <c r="I66">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45313</v>
       </c>
@@ -1615,13 +1630,13 @@
         <v>1</v>
       </c>
       <c r="H67">
+        <v>7.3</v>
+      </c>
+      <c r="I67">
         <v>5.2</v>
       </c>
-      <c r="I67">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45313</v>
       </c>
@@ -1635,13 +1650,13 @@
         <v>1</v>
       </c>
       <c r="H68">
+        <v>4.8</v>
+      </c>
+      <c r="I68">
         <v>4.7</v>
       </c>
-      <c r="I68">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45313</v>
       </c>
@@ -1655,13 +1670,13 @@
         <v>1</v>
       </c>
       <c r="H69">
+        <v>4.2</v>
+      </c>
+      <c r="I69">
         <v>3.3</v>
       </c>
-      <c r="I69">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45313</v>
       </c>
@@ -1675,13 +1690,13 @@
         <v>1</v>
       </c>
       <c r="H70">
+        <v>7.2</v>
+      </c>
+      <c r="I70">
         <v>5.5</v>
       </c>
-      <c r="I70">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45313</v>
       </c>
@@ -1695,13 +1710,13 @@
         <v>1</v>
       </c>
       <c r="H71">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I71">
         <v>3.1</v>
       </c>
-      <c r="I71">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45313</v>
       </c>
@@ -1715,13 +1730,13 @@
         <v>1</v>
       </c>
       <c r="H72">
+        <v>3.9</v>
+      </c>
+      <c r="I72">
         <v>3.3</v>
       </c>
-      <c r="I72">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45313</v>
       </c>
@@ -1735,13 +1750,13 @@
         <v>1</v>
       </c>
       <c r="H73">
+        <v>7.1</v>
+      </c>
+      <c r="I73">
         <v>4.3</v>
       </c>
-      <c r="I73">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45315</v>
       </c>
@@ -1761,13 +1776,13 @@
         <v>1</v>
       </c>
       <c r="H74">
+        <v>8.6</v>
+      </c>
+      <c r="I74">
         <v>4.5</v>
       </c>
-      <c r="I74">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45315</v>
       </c>
@@ -1787,13 +1802,13 @@
         <v>1</v>
       </c>
       <c r="H75">
+        <v>7.2</v>
+      </c>
+      <c r="I75">
         <v>4.2</v>
       </c>
-      <c r="I75">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45315</v>
       </c>
@@ -1813,13 +1828,13 @@
         <v>1</v>
       </c>
       <c r="H76">
+        <v>7.5</v>
+      </c>
+      <c r="I76">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I76">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45315</v>
       </c>
@@ -1839,13 +1854,13 @@
         <v>1</v>
       </c>
       <c r="H77">
+        <v>3.5</v>
+      </c>
+      <c r="I77">
         <v>2.8</v>
       </c>
-      <c r="I77">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45315</v>
       </c>
@@ -1865,13 +1880,13 @@
         <v>1</v>
       </c>
       <c r="H78">
+        <v>4.2</v>
+      </c>
+      <c r="I78">
         <v>3.7</v>
       </c>
-      <c r="I78">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45315</v>
       </c>
@@ -1891,13 +1906,13 @@
         <v>1</v>
       </c>
       <c r="H79">
+        <v>8.9</v>
+      </c>
+      <c r="I79">
         <v>6.5</v>
       </c>
-      <c r="I79">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45315</v>
       </c>
@@ -1917,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="H80">
+        <v>6.9</v>
+      </c>
+      <c r="I80">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I80">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45315</v>
       </c>
@@ -1943,13 +1958,13 @@
         <v>1</v>
       </c>
       <c r="H81">
+        <v>8.1</v>
+      </c>
+      <c r="I81">
         <v>5.3</v>
       </c>
-      <c r="I81">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45315</v>
       </c>
@@ -1969,13 +1984,13 @@
         <v>1</v>
       </c>
       <c r="H82">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I82">
         <v>5</v>
       </c>
-      <c r="I82">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45315</v>
       </c>
@@ -1995,13 +2010,13 @@
         <v>1</v>
       </c>
       <c r="H83">
+        <v>8.9</v>
+      </c>
+      <c r="I83">
         <v>5.2</v>
       </c>
-      <c r="I83">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45315</v>
       </c>
@@ -2021,13 +2036,13 @@
         <v>1</v>
       </c>
       <c r="H84">
+        <v>8.6</v>
+      </c>
+      <c r="I84">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I84">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45315</v>
       </c>
@@ -2047,13 +2062,13 @@
         <v>1</v>
       </c>
       <c r="H85">
+        <v>11</v>
+      </c>
+      <c r="I85">
         <v>4.5999999999999996</v>
       </c>
-      <c r="I85">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45315</v>
       </c>
@@ -2073,13 +2088,13 @@
         <v>1</v>
       </c>
       <c r="H86">
+        <v>5.7</v>
+      </c>
+      <c r="I86">
         <v>4.3</v>
       </c>
-      <c r="I86">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45315</v>
       </c>
@@ -2099,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="H87">
+        <v>6.8</v>
+      </c>
+      <c r="I87">
         <v>3.7</v>
       </c>
-      <c r="I87">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45315</v>
       </c>
@@ -2125,13 +2140,13 @@
         <v>1</v>
       </c>
       <c r="H88">
+        <v>7.5</v>
+      </c>
+      <c r="I88">
         <v>6.1</v>
       </c>
-      <c r="I88">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45315</v>
       </c>
@@ -2151,13 +2166,13 @@
         <v>1</v>
       </c>
       <c r="H89">
+        <v>6.3</v>
+      </c>
+      <c r="I89">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I89">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45315</v>
       </c>
@@ -2177,13 +2192,13 @@
         <v>1</v>
       </c>
       <c r="H90">
+        <v>10.1</v>
+      </c>
+      <c r="I90">
         <v>4.2</v>
       </c>
-      <c r="I90">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45315</v>
       </c>
@@ -2203,13 +2218,13 @@
         <v>1</v>
       </c>
       <c r="H91">
+        <v>7.4</v>
+      </c>
+      <c r="I91">
         <v>4.3</v>
       </c>
-      <c r="I91">
-        <v>7.4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45315</v>
       </c>
@@ -2229,13 +2244,13 @@
         <v>1</v>
       </c>
       <c r="H92">
+        <v>5.3</v>
+      </c>
+      <c r="I92">
         <v>4.5</v>
       </c>
-      <c r="I92">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45315</v>
       </c>
@@ -2255,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
         <v>3.3</v>
       </c>
-      <c r="I93">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45315</v>
       </c>
@@ -2281,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="H94">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I94">
         <v>5.4</v>
       </c>
-      <c r="I94">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45315</v>
       </c>
@@ -2307,13 +2322,13 @@
         <v>1</v>
       </c>
       <c r="H95">
+        <v>11.4</v>
+      </c>
+      <c r="I95">
         <v>4.3</v>
       </c>
-      <c r="I95">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45315</v>
       </c>
@@ -2333,13 +2348,13 @@
         <v>1</v>
       </c>
       <c r="H96">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I96">
         <v>5.3</v>
       </c>
-      <c r="I96">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45315</v>
       </c>
@@ -2359,13 +2374,13 @@
         <v>1</v>
       </c>
       <c r="H97">
+        <v>8.5</v>
+      </c>
+      <c r="I97">
         <v>4.8</v>
       </c>
-      <c r="I97">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45318</v>
       </c>
@@ -2375,6 +2390,9 @@
       <c r="C98">
         <v>1</v>
       </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
       <c r="E98" t="s">
         <v>11</v>
       </c>
@@ -2382,13 +2400,13 @@
         <v>1</v>
       </c>
       <c r="H98">
+        <v>9.6</v>
+      </c>
+      <c r="I98">
         <v>5.7</v>
       </c>
-      <c r="I98">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45318</v>
       </c>
@@ -2398,6 +2416,9 @@
       <c r="C99">
         <v>1</v>
       </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
       <c r="E99" t="s">
         <v>11</v>
       </c>
@@ -2405,13 +2426,13 @@
         <v>1</v>
       </c>
       <c r="H99">
+        <v>8.5</v>
+      </c>
+      <c r="I99">
         <v>5.6</v>
       </c>
-      <c r="I99">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45318</v>
       </c>
@@ -2421,6 +2442,9 @@
       <c r="C100">
         <v>1</v>
       </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
       <c r="E100" t="s">
         <v>11</v>
       </c>
@@ -2428,13 +2452,13 @@
         <v>1</v>
       </c>
       <c r="H100">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I100">
         <v>4.8</v>
       </c>
-      <c r="I100">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45318</v>
       </c>
@@ -2444,6 +2468,9 @@
       <c r="C101">
         <v>2</v>
       </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
       <c r="E101" t="s">
         <v>12</v>
       </c>
@@ -2451,13 +2478,13 @@
         <v>1</v>
       </c>
       <c r="H101">
+        <v>12.5</v>
+      </c>
+      <c r="I101">
         <v>5.7</v>
       </c>
-      <c r="I101">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45318</v>
       </c>
@@ -2467,6 +2494,9 @@
       <c r="C102">
         <v>2</v>
       </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
       <c r="E102" t="s">
         <v>12</v>
       </c>
@@ -2480,7 +2510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45318</v>
       </c>
@@ -2490,6 +2520,9 @@
       <c r="C103">
         <v>2</v>
       </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
       <c r="E103" t="s">
         <v>12</v>
       </c>
@@ -2497,13 +2530,13 @@
         <v>2</v>
       </c>
       <c r="H103">
+        <v>7.3</v>
+      </c>
+      <c r="I103">
         <v>7</v>
       </c>
-      <c r="I103">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45318</v>
       </c>
@@ -2513,6 +2546,9 @@
       <c r="C104">
         <v>2</v>
       </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
       <c r="E104" t="s">
         <v>12</v>
       </c>
@@ -2520,13 +2556,13 @@
         <v>1</v>
       </c>
       <c r="H104">
+        <v>10.4</v>
+      </c>
+      <c r="I104">
         <v>6.8</v>
       </c>
-      <c r="I104">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45318</v>
       </c>
@@ -2536,6 +2572,9 @@
       <c r="C105">
         <v>3</v>
       </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
       <c r="E105" t="s">
         <v>11</v>
       </c>
@@ -2543,13 +2582,13 @@
         <v>1</v>
       </c>
       <c r="H105">
+        <v>7.3</v>
+      </c>
+      <c r="I105">
         <v>6.2</v>
       </c>
-      <c r="I105">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45318</v>
       </c>
@@ -2559,6 +2598,9 @@
       <c r="C106">
         <v>3</v>
       </c>
+      <c r="D106" t="s">
+        <v>13</v>
+      </c>
       <c r="E106" t="s">
         <v>11</v>
       </c>
@@ -2566,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="H106">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I106">
         <v>6.5</v>
       </c>
-      <c r="I106">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45318</v>
       </c>
@@ -2582,6 +2624,9 @@
       <c r="C107">
         <v>3</v>
       </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
       <c r="E107" t="s">
         <v>11</v>
       </c>
@@ -2589,13 +2634,13 @@
         <v>1</v>
       </c>
       <c r="H107">
+        <v>11.5</v>
+      </c>
+      <c r="I107">
         <v>6.1</v>
       </c>
-      <c r="I107">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45318</v>
       </c>
@@ -2605,6 +2650,9 @@
       <c r="C108">
         <v>4</v>
       </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
       <c r="E108" t="s">
         <v>12</v>
       </c>
@@ -2612,13 +2660,13 @@
         <v>1</v>
       </c>
       <c r="H108">
+        <v>10.8</v>
+      </c>
+      <c r="I108">
         <v>6</v>
       </c>
-      <c r="I108">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45318</v>
       </c>
@@ -2628,6 +2676,9 @@
       <c r="C109">
         <v>4</v>
       </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
       <c r="E109" t="s">
         <v>12</v>
       </c>
@@ -2635,13 +2686,13 @@
         <v>1</v>
       </c>
       <c r="H109">
+        <v>10.7</v>
+      </c>
+      <c r="I109">
         <v>6.2</v>
       </c>
-      <c r="I109">
-        <v>10.7</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45318</v>
       </c>
@@ -2651,6 +2702,9 @@
       <c r="C110">
         <v>4</v>
       </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
       <c r="E110" t="s">
         <v>12</v>
       </c>
@@ -2658,13 +2712,13 @@
         <v>1</v>
       </c>
       <c r="H110">
+        <v>11.7</v>
+      </c>
+      <c r="I110">
         <v>5.3</v>
       </c>
-      <c r="I110">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45318</v>
       </c>
@@ -2674,6 +2728,9 @@
       <c r="C111">
         <v>5</v>
       </c>
+      <c r="D111" t="s">
+        <v>14</v>
+      </c>
       <c r="E111" t="s">
         <v>11</v>
       </c>
@@ -2681,13 +2738,13 @@
         <v>1</v>
       </c>
       <c r="H111">
+        <v>6.9</v>
+      </c>
+      <c r="I111">
         <v>6.7</v>
       </c>
-      <c r="I111">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45318</v>
       </c>
@@ -2697,6 +2754,9 @@
       <c r="C112">
         <v>5</v>
       </c>
+      <c r="D112" t="s">
+        <v>14</v>
+      </c>
       <c r="E112" t="s">
         <v>11</v>
       </c>
@@ -2704,13 +2764,13 @@
         <v>1</v>
       </c>
       <c r="H112">
+        <v>7.9</v>
+      </c>
+      <c r="I112">
         <v>4.5</v>
       </c>
-      <c r="I112">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45318</v>
       </c>
@@ -2720,6 +2780,9 @@
       <c r="C113">
         <v>5</v>
       </c>
+      <c r="D113" t="s">
+        <v>14</v>
+      </c>
       <c r="E113" t="s">
         <v>11</v>
       </c>
@@ -2727,13 +2790,13 @@
         <v>1</v>
       </c>
       <c r="H113">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I113">
         <v>6.6</v>
       </c>
-      <c r="I113">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45318</v>
       </c>
@@ -2743,6 +2806,9 @@
       <c r="C114">
         <v>6</v>
       </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
       <c r="E114" t="s">
         <v>12</v>
       </c>
@@ -2750,13 +2816,13 @@
         <v>1</v>
       </c>
       <c r="H114">
+        <v>7.6</v>
+      </c>
+      <c r="I114">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I114">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45318</v>
       </c>
@@ -2766,6 +2832,9 @@
       <c r="C115">
         <v>6</v>
       </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
       <c r="E115" t="s">
         <v>12</v>
       </c>
@@ -2773,13 +2842,13 @@
         <v>1</v>
       </c>
       <c r="H115">
+        <v>11.6</v>
+      </c>
+      <c r="I115">
         <v>5.2</v>
       </c>
-      <c r="I115">
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45318</v>
       </c>
@@ -2789,6 +2858,9 @@
       <c r="C116">
         <v>6</v>
       </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
       <c r="E116" t="s">
         <v>12</v>
       </c>
@@ -2796,13 +2868,13 @@
         <v>1</v>
       </c>
       <c r="H116">
+        <v>8.5</v>
+      </c>
+      <c r="I116">
         <v>5.7</v>
       </c>
-      <c r="I116">
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45318</v>
       </c>
@@ -2812,6 +2884,9 @@
       <c r="C117">
         <v>7</v>
       </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
       <c r="E117" t="s">
         <v>11</v>
       </c>
@@ -2819,13 +2894,13 @@
         <v>1</v>
       </c>
       <c r="H117">
+        <v>11.4</v>
+      </c>
+      <c r="I117">
         <v>5.8</v>
       </c>
-      <c r="I117">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45318</v>
       </c>
@@ -2835,6 +2910,9 @@
       <c r="C118">
         <v>7</v>
       </c>
+      <c r="D118" t="s">
+        <v>14</v>
+      </c>
       <c r="E118" t="s">
         <v>11</v>
       </c>
@@ -2842,13 +2920,13 @@
         <v>1</v>
       </c>
       <c r="H118">
+        <v>8.9</v>
+      </c>
+      <c r="I118">
         <v>5.7</v>
       </c>
-      <c r="I118">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45318</v>
       </c>
@@ -2858,6 +2936,9 @@
       <c r="C119">
         <v>7</v>
       </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
       <c r="E119" t="s">
         <v>11</v>
       </c>
@@ -2865,13 +2946,13 @@
         <v>1</v>
       </c>
       <c r="H119">
+        <v>7.9</v>
+      </c>
+      <c r="I119">
         <v>6.3</v>
       </c>
-      <c r="I119">
-        <v>7.9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45318</v>
       </c>
@@ -2881,6 +2962,9 @@
       <c r="C120">
         <v>8</v>
       </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
       <c r="E120" t="s">
         <v>12</v>
       </c>
@@ -2888,13 +2972,13 @@
         <v>1</v>
       </c>
       <c r="H120">
+        <v>11.4</v>
+      </c>
+      <c r="I120">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I120">
-        <v>11.4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45318</v>
       </c>
@@ -2904,6 +2988,9 @@
       <c r="C121">
         <v>8</v>
       </c>
+      <c r="D121" t="s">
+        <v>14</v>
+      </c>
       <c r="E121" t="s">
         <v>12</v>
       </c>
@@ -2911,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="H121">
+        <v>10.1</v>
+      </c>
+      <c r="I121">
         <v>6.6</v>
       </c>
-      <c r="I121">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45318</v>
       </c>
@@ -2927,6 +3014,9 @@
       <c r="C122">
         <v>8</v>
       </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
       <c r="E122" t="s">
         <v>12</v>
       </c>
@@ -2934,13 +3024,13 @@
         <v>1</v>
       </c>
       <c r="H122">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I122">
         <v>5.8</v>
       </c>
-      <c r="I122">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45321</v>
       </c>
@@ -2950,6 +3040,9 @@
       <c r="C123">
         <v>1</v>
       </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
       <c r="E123" t="s">
         <v>11</v>
       </c>
@@ -2957,13 +3050,13 @@
         <v>1</v>
       </c>
       <c r="H123">
+        <v>10</v>
+      </c>
+      <c r="I123">
         <v>6.4</v>
       </c>
-      <c r="I123">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45321</v>
       </c>
@@ -2973,6 +3066,9 @@
       <c r="C124">
         <v>1</v>
       </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
       <c r="E124" t="s">
         <v>11</v>
       </c>
@@ -2980,13 +3076,13 @@
         <v>1</v>
       </c>
       <c r="H124">
+        <v>6.9</v>
+      </c>
+      <c r="I124">
         <v>5.2</v>
       </c>
-      <c r="I124">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45321</v>
       </c>
@@ -2996,6 +3092,9 @@
       <c r="C125">
         <v>1</v>
       </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
       <c r="E125" t="s">
         <v>11</v>
       </c>
@@ -3003,13 +3102,13 @@
         <v>1</v>
       </c>
       <c r="H125">
+        <v>8.4</v>
+      </c>
+      <c r="I125">
         <v>5.5</v>
       </c>
-      <c r="I125">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45321</v>
       </c>
@@ -3019,6 +3118,9 @@
       <c r="C126">
         <v>2</v>
       </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
       <c r="E126" t="s">
         <v>12</v>
       </c>
@@ -3026,13 +3128,13 @@
         <v>1</v>
       </c>
       <c r="H126">
+        <v>13</v>
+      </c>
+      <c r="I126">
         <v>6.4</v>
       </c>
-      <c r="I126">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45321</v>
       </c>
@@ -3042,6 +3144,9 @@
       <c r="C127">
         <v>2</v>
       </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
       <c r="E127" t="s">
         <v>12</v>
       </c>
@@ -3049,13 +3154,13 @@
         <v>1</v>
       </c>
       <c r="H127">
+        <v>7.7</v>
+      </c>
+      <c r="I127">
         <v>6.9</v>
       </c>
-      <c r="I127">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45321</v>
       </c>
@@ -3065,6 +3170,9 @@
       <c r="C128">
         <v>2</v>
       </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
       <c r="E128" t="s">
         <v>12</v>
       </c>
@@ -3072,13 +3180,13 @@
         <v>2</v>
       </c>
       <c r="H128">
+        <v>12.8</v>
+      </c>
+      <c r="I128">
         <v>7</v>
       </c>
-      <c r="I128">
-        <v>12.8</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45321</v>
       </c>
@@ -3088,6 +3196,9 @@
       <c r="C129">
         <v>2</v>
       </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
       <c r="E129" t="s">
         <v>12</v>
       </c>
@@ -3095,13 +3206,13 @@
         <v>1</v>
       </c>
       <c r="H129">
+        <v>12.7</v>
+      </c>
+      <c r="I129">
         <v>7.1</v>
       </c>
-      <c r="I129">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45321</v>
       </c>
@@ -3111,6 +3222,9 @@
       <c r="C130">
         <v>3</v>
       </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
       <c r="E130" t="s">
         <v>11</v>
       </c>
@@ -3118,13 +3232,13 @@
         <v>1</v>
       </c>
       <c r="H130">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I130">
         <v>6.6</v>
       </c>
-      <c r="I130">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45321</v>
       </c>
@@ -3134,6 +3248,9 @@
       <c r="C131">
         <v>3</v>
       </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
       <c r="E131" t="s">
         <v>11</v>
       </c>
@@ -3141,13 +3258,13 @@
         <v>1</v>
       </c>
       <c r="H131">
+        <v>11.2</v>
+      </c>
+      <c r="I131">
         <v>7.8</v>
       </c>
-      <c r="I131">
-        <v>11.2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45321</v>
       </c>
@@ -3157,6 +3274,9 @@
       <c r="C132">
         <v>3</v>
       </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
       <c r="E132" t="s">
         <v>11</v>
       </c>
@@ -3164,13 +3284,13 @@
         <v>1</v>
       </c>
       <c r="H132">
+        <v>12.6</v>
+      </c>
+      <c r="I132">
         <v>7.1</v>
       </c>
-      <c r="I132">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45321</v>
       </c>
@@ -3180,6 +3300,9 @@
       <c r="C133">
         <v>4</v>
       </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
       <c r="E133" t="s">
         <v>12</v>
       </c>
@@ -3187,13 +3310,13 @@
         <v>1</v>
       </c>
       <c r="H133">
+        <v>12</v>
+      </c>
+      <c r="I133">
         <v>6.7</v>
       </c>
-      <c r="I133">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45321</v>
       </c>
@@ -3203,6 +3326,9 @@
       <c r="C134">
         <v>4</v>
       </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
       <c r="E134" t="s">
         <v>12</v>
       </c>
@@ -3210,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="H134">
+        <v>11.9</v>
+      </c>
+      <c r="I134">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I134">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45321</v>
       </c>
@@ -3226,6 +3352,9 @@
       <c r="C135">
         <v>4</v>
       </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
       <c r="E135" t="s">
         <v>12</v>
       </c>
@@ -3233,13 +3362,13 @@
         <v>1</v>
       </c>
       <c r="H135">
+        <v>12.9</v>
+      </c>
+      <c r="I135">
         <v>7.4</v>
       </c>
-      <c r="I135">
-        <v>12.9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>45321</v>
       </c>
@@ -3249,6 +3378,9 @@
       <c r="C136">
         <v>5</v>
       </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
       <c r="E136" t="s">
         <v>11</v>
       </c>
@@ -3256,13 +3388,13 @@
         <v>1</v>
       </c>
       <c r="H136">
+        <v>8.9</v>
+      </c>
+      <c r="I136">
         <v>7.8</v>
       </c>
-      <c r="I136">
-        <v>8.9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45321</v>
       </c>
@@ -3272,6 +3404,9 @@
       <c r="C137">
         <v>5</v>
       </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
       <c r="E137" t="s">
         <v>11</v>
       </c>
@@ -3279,13 +3414,13 @@
         <v>1</v>
       </c>
       <c r="H137">
+        <v>6.9</v>
+      </c>
+      <c r="I137">
         <v>5.4</v>
       </c>
-      <c r="I137">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>45321</v>
       </c>
@@ -3295,6 +3430,9 @@
       <c r="C138">
         <v>5</v>
       </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
       <c r="E138" t="s">
         <v>11</v>
       </c>
@@ -3302,13 +3440,13 @@
         <v>1</v>
       </c>
       <c r="H138">
+        <v>11.7</v>
+      </c>
+      <c r="I138">
         <v>6.5</v>
       </c>
-      <c r="I138">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>45321</v>
       </c>
@@ -3318,6 +3456,9 @@
       <c r="C139">
         <v>6</v>
       </c>
+      <c r="D139" t="s">
+        <v>14</v>
+      </c>
       <c r="E139" t="s">
         <v>12</v>
       </c>
@@ -3325,13 +3466,13 @@
         <v>1</v>
       </c>
       <c r="H139">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I139">
         <v>6.8</v>
       </c>
-      <c r="I139">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>45321</v>
       </c>
@@ -3341,6 +3482,9 @@
       <c r="C140">
         <v>6</v>
       </c>
+      <c r="D140" t="s">
+        <v>14</v>
+      </c>
       <c r="E140" t="s">
         <v>12</v>
       </c>
@@ -3348,13 +3492,13 @@
         <v>1</v>
       </c>
       <c r="H140">
+        <v>13.1</v>
+      </c>
+      <c r="I140">
         <v>6.5</v>
       </c>
-      <c r="I140">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>45321</v>
       </c>
@@ -3364,6 +3508,9 @@
       <c r="C141">
         <v>6</v>
       </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
       <c r="E141" t="s">
         <v>12</v>
       </c>
@@ -3371,13 +3518,13 @@
         <v>1</v>
       </c>
       <c r="H141">
+        <v>10.8</v>
+      </c>
+      <c r="I141">
         <v>7.7</v>
       </c>
-      <c r="I141">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45321</v>
       </c>
@@ -3387,6 +3534,9 @@
       <c r="C142">
         <v>7</v>
       </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
       <c r="E142" t="s">
         <v>11</v>
       </c>
@@ -3394,13 +3544,13 @@
         <v>1</v>
       </c>
       <c r="H142">
+        <v>12.1</v>
+      </c>
+      <c r="I142">
         <v>6.5</v>
       </c>
-      <c r="I142">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>45321</v>
       </c>
@@ -3410,6 +3560,9 @@
       <c r="C143">
         <v>7</v>
       </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
       <c r="E143" t="s">
         <v>11</v>
       </c>
@@ -3417,13 +3570,13 @@
         <v>1</v>
       </c>
       <c r="H143">
+        <v>9.9</v>
+      </c>
+      <c r="I143">
         <v>7.1</v>
       </c>
-      <c r="I143">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>45321</v>
       </c>
@@ -3433,6 +3586,9 @@
       <c r="C144">
         <v>7</v>
       </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
       <c r="E144" t="s">
         <v>11</v>
       </c>
@@ -3440,13 +3596,13 @@
         <v>1</v>
       </c>
       <c r="H144">
+        <v>5.3</v>
+      </c>
+      <c r="I144">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I144">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>45321</v>
       </c>
@@ -3456,6 +3612,9 @@
       <c r="C145">
         <v>7</v>
       </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
       <c r="E145" t="s">
         <v>11</v>
       </c>
@@ -3463,13 +3622,13 @@
         <v>2</v>
       </c>
       <c r="H145">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I145">
         <v>7.5</v>
       </c>
-      <c r="I145">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>45321</v>
       </c>
@@ -3479,6 +3638,9 @@
       <c r="C146">
         <v>8</v>
       </c>
+      <c r="D146" t="s">
+        <v>14</v>
+      </c>
       <c r="E146" t="s">
         <v>12</v>
       </c>
@@ -3486,13 +3648,13 @@
         <v>1</v>
       </c>
       <c r="H146">
+        <v>12.5</v>
+      </c>
+      <c r="I146">
         <v>6.8</v>
       </c>
-      <c r="I146">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>45321</v>
       </c>
@@ -3502,6 +3664,9 @@
       <c r="C147">
         <v>8</v>
       </c>
+      <c r="D147" t="s">
+        <v>14</v>
+      </c>
       <c r="E147" t="s">
         <v>12</v>
       </c>
@@ -3509,13 +3674,13 @@
         <v>1</v>
       </c>
       <c r="H147">
+        <v>13.1</v>
+      </c>
+      <c r="I147">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I147">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>45321</v>
       </c>
@@ -3525,6 +3690,9 @@
       <c r="C148">
         <v>8</v>
       </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
       <c r="E148" t="s">
         <v>12</v>
       </c>
@@ -3532,13 +3700,13 @@
         <v>1</v>
       </c>
       <c r="H148">
+        <v>10.3</v>
+      </c>
+      <c r="I148">
         <v>6.2</v>
       </c>
-      <c r="I148">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45324</v>
       </c>
@@ -3548,6 +3716,9 @@
       <c r="C149">
         <v>1</v>
       </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
       <c r="E149" t="s">
         <v>11</v>
       </c>
@@ -3555,13 +3726,13 @@
         <v>1</v>
       </c>
       <c r="H149">
+        <v>11.8</v>
+      </c>
+      <c r="I149">
         <v>7.9</v>
       </c>
-      <c r="I149">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45324</v>
       </c>
@@ -3571,6 +3742,9 @@
       <c r="C150">
         <v>1</v>
       </c>
+      <c r="D150" t="s">
+        <v>13</v>
+      </c>
       <c r="E150" t="s">
         <v>11</v>
       </c>
@@ -3578,13 +3752,13 @@
         <v>1</v>
       </c>
       <c r="H150">
+        <v>7.3</v>
+      </c>
+      <c r="I150">
         <v>6.8</v>
       </c>
-      <c r="I150">
-        <v>7.3</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>45324</v>
       </c>
@@ -3594,6 +3768,9 @@
       <c r="C151">
         <v>1</v>
       </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
       <c r="E151" t="s">
         <v>11</v>
       </c>
@@ -3601,13 +3778,13 @@
         <v>1</v>
       </c>
       <c r="H151">
+        <v>8.1</v>
+      </c>
+      <c r="I151">
         <v>6.2</v>
       </c>
-      <c r="I151">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>45324</v>
       </c>
@@ -3617,6 +3794,9 @@
       <c r="C152">
         <v>2</v>
       </c>
+      <c r="D152" t="s">
+        <v>13</v>
+      </c>
       <c r="E152" t="s">
         <v>12</v>
       </c>
@@ -3624,13 +3804,13 @@
         <v>1</v>
       </c>
       <c r="H152">
+        <v>12.3</v>
+      </c>
+      <c r="I152">
         <v>6.4</v>
       </c>
-      <c r="I152">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>45324</v>
       </c>
@@ -3640,6 +3820,9 @@
       <c r="C153">
         <v>2</v>
       </c>
+      <c r="D153" t="s">
+        <v>13</v>
+      </c>
       <c r="E153" t="s">
         <v>12</v>
       </c>
@@ -3647,13 +3830,13 @@
         <v>1</v>
       </c>
       <c r="H153">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I153">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I153">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>45324</v>
       </c>
@@ -3663,6 +3846,9 @@
       <c r="C154">
         <v>2</v>
       </c>
+      <c r="D154" t="s">
+        <v>13</v>
+      </c>
       <c r="E154" t="s">
         <v>12</v>
       </c>
@@ -3670,13 +3856,13 @@
         <v>2</v>
       </c>
       <c r="H154">
+        <v>10.4</v>
+      </c>
+      <c r="I154">
         <v>7.2</v>
       </c>
-      <c r="I154">
-        <v>10.4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>45324</v>
       </c>
@@ -3686,6 +3872,9 @@
       <c r="C155">
         <v>2</v>
       </c>
+      <c r="D155" t="s">
+        <v>13</v>
+      </c>
       <c r="E155" t="s">
         <v>12</v>
       </c>
@@ -3693,13 +3882,13 @@
         <v>1</v>
       </c>
       <c r="H155">
+        <v>11.8</v>
+      </c>
+      <c r="I155">
         <v>7.3</v>
       </c>
-      <c r="I155">
-        <v>11.8</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>45324</v>
       </c>
@@ -3709,6 +3898,9 @@
       <c r="C156">
         <v>3</v>
       </c>
+      <c r="D156" t="s">
+        <v>13</v>
+      </c>
       <c r="E156" t="s">
         <v>11</v>
       </c>
@@ -3716,13 +3908,13 @@
         <v>1</v>
       </c>
       <c r="H156">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="I156">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I156">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>45324</v>
       </c>
@@ -3732,6 +3924,9 @@
       <c r="C157">
         <v>3</v>
       </c>
+      <c r="D157" t="s">
+        <v>13</v>
+      </c>
       <c r="E157" t="s">
         <v>11</v>
       </c>
@@ -3739,13 +3934,13 @@
         <v>1</v>
       </c>
       <c r="H157">
+        <v>12.6</v>
+      </c>
+      <c r="I157">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I157">
-        <v>12.6</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>45324</v>
       </c>
@@ -3755,6 +3950,9 @@
       <c r="C158">
         <v>3</v>
       </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
       <c r="E158" t="s">
         <v>11</v>
       </c>
@@ -3762,13 +3960,13 @@
         <v>1</v>
       </c>
       <c r="H158">
+        <v>12.3</v>
+      </c>
+      <c r="I158">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I158">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>45324</v>
       </c>
@@ -3778,6 +3976,9 @@
       <c r="C159">
         <v>4</v>
       </c>
+      <c r="D159" t="s">
+        <v>13</v>
+      </c>
       <c r="E159" t="s">
         <v>12</v>
       </c>
@@ -3785,13 +3986,13 @@
         <v>1</v>
       </c>
       <c r="H159">
+        <v>12.7</v>
+      </c>
+      <c r="I159">
         <v>7.6</v>
       </c>
-      <c r="I159">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>45324</v>
       </c>
@@ -3801,6 +4002,9 @@
       <c r="C160">
         <v>4</v>
       </c>
+      <c r="D160" t="s">
+        <v>13</v>
+      </c>
       <c r="E160" t="s">
         <v>12</v>
       </c>
@@ -3808,13 +4012,13 @@
         <v>1</v>
       </c>
       <c r="H160">
+        <v>11.5</v>
+      </c>
+      <c r="I160">
         <v>8.6</v>
       </c>
-      <c r="I160">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>45324</v>
       </c>
@@ -3824,6 +4028,9 @@
       <c r="C161">
         <v>4</v>
       </c>
+      <c r="D161" t="s">
+        <v>13</v>
+      </c>
       <c r="E161" t="s">
         <v>12</v>
       </c>
@@ -3831,13 +4038,13 @@
         <v>1</v>
       </c>
       <c r="H161">
+        <v>13.5</v>
+      </c>
+      <c r="I161">
         <v>7.4</v>
       </c>
-      <c r="I161">
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>45324</v>
       </c>
@@ -3847,6 +4054,9 @@
       <c r="C162">
         <v>5</v>
       </c>
+      <c r="D162" t="s">
+        <v>14</v>
+      </c>
       <c r="E162" t="s">
         <v>11</v>
       </c>
@@ -3854,13 +4064,13 @@
         <v>1</v>
       </c>
       <c r="H162">
+        <v>10.1</v>
+      </c>
+      <c r="I162">
         <v>9.9</v>
       </c>
-      <c r="I162">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>45324</v>
       </c>
@@ -3870,6 +4080,9 @@
       <c r="C163">
         <v>5</v>
       </c>
+      <c r="D163" t="s">
+        <v>14</v>
+      </c>
       <c r="E163" t="s">
         <v>11</v>
       </c>
@@ -3877,13 +4090,13 @@
         <v>1</v>
       </c>
       <c r="H163">
+        <v>7</v>
+      </c>
+      <c r="I163">
         <v>6.3</v>
       </c>
-      <c r="I163">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>45324</v>
       </c>
@@ -3893,6 +4106,9 @@
       <c r="C164">
         <v>5</v>
       </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
       <c r="E164" t="s">
         <v>11</v>
       </c>
@@ -3900,13 +4116,13 @@
         <v>1</v>
       </c>
       <c r="H164">
+        <v>12.3</v>
+      </c>
+      <c r="I164">
         <v>9.1</v>
       </c>
-      <c r="I164">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>45324</v>
       </c>
@@ -3916,6 +4132,9 @@
       <c r="C165">
         <v>6</v>
       </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
       <c r="E165" t="s">
         <v>12</v>
       </c>
@@ -3923,13 +4142,13 @@
         <v>1</v>
       </c>
       <c r="H165">
+        <v>10.8</v>
+      </c>
+      <c r="I165">
         <v>7.1</v>
       </c>
-      <c r="I165">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>45324</v>
       </c>
@@ -3939,6 +4158,9 @@
       <c r="C166">
         <v>6</v>
       </c>
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
       <c r="E166" t="s">
         <v>12</v>
       </c>
@@ -3946,13 +4168,13 @@
         <v>1</v>
       </c>
       <c r="H166">
+        <v>13.9</v>
+      </c>
+      <c r="I166">
         <v>7.4</v>
       </c>
-      <c r="I166">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>45324</v>
       </c>
@@ -3962,6 +4184,9 @@
       <c r="C167">
         <v>6</v>
       </c>
+      <c r="D167" t="s">
+        <v>14</v>
+      </c>
       <c r="E167" t="s">
         <v>12</v>
       </c>
@@ -3969,13 +4194,13 @@
         <v>1</v>
       </c>
       <c r="H167">
+        <v>11.3</v>
+      </c>
+      <c r="I167">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I167">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>45324</v>
       </c>
@@ -3985,6 +4210,9 @@
       <c r="C168">
         <v>7</v>
       </c>
+      <c r="D168" t="s">
+        <v>14</v>
+      </c>
       <c r="E168" t="s">
         <v>11</v>
       </c>
@@ -3992,13 +4220,13 @@
         <v>1</v>
       </c>
       <c r="H168">
+        <v>12.7</v>
+      </c>
+      <c r="I168">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I168">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>45324</v>
       </c>
@@ -4008,6 +4236,9 @@
       <c r="C169">
         <v>7</v>
       </c>
+      <c r="D169" t="s">
+        <v>14</v>
+      </c>
       <c r="E169" t="s">
         <v>11</v>
       </c>
@@ -4015,13 +4246,13 @@
         <v>1</v>
       </c>
       <c r="H169">
+        <v>10.6</v>
+      </c>
+      <c r="I169">
         <v>7.5</v>
       </c>
-      <c r="I169">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>45324</v>
       </c>
@@ -4031,6 +4262,9 @@
       <c r="C170">
         <v>7</v>
       </c>
+      <c r="D170" t="s">
+        <v>14</v>
+      </c>
       <c r="E170" t="s">
         <v>11</v>
       </c>
@@ -4038,13 +4272,13 @@
         <v>1</v>
       </c>
       <c r="H170">
+        <v>10.8</v>
+      </c>
+      <c r="I170">
         <v>8.4</v>
       </c>
-      <c r="I170">
-        <v>10.8</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>45324</v>
       </c>
@@ -4054,6 +4288,9 @@
       <c r="C171">
         <v>7</v>
       </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
       <c r="E171" t="s">
         <v>11</v>
       </c>
@@ -4061,13 +4298,13 @@
         <v>2</v>
       </c>
       <c r="H171">
+        <v>6.2</v>
+      </c>
+      <c r="I171">
         <v>4.8</v>
       </c>
-      <c r="I171">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>45324</v>
       </c>
@@ -4077,6 +4314,9 @@
       <c r="C172">
         <v>8</v>
       </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
       <c r="E172" t="s">
         <v>12</v>
       </c>
@@ -4084,13 +4324,13 @@
         <v>1</v>
       </c>
       <c r="H172">
+        <v>13.2</v>
+      </c>
+      <c r="I172">
         <v>6.8</v>
       </c>
-      <c r="I172">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>45324</v>
       </c>
@@ -4100,6 +4340,9 @@
       <c r="C173">
         <v>8</v>
       </c>
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
       <c r="E173" t="s">
         <v>12</v>
       </c>
@@ -4107,13 +4350,13 @@
         <v>1</v>
       </c>
       <c r="H173">
+        <v>11.7</v>
+      </c>
+      <c r="I173">
         <v>8.4</v>
       </c>
-      <c r="I173">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>45324</v>
       </c>
@@ -4123,6 +4366,9 @@
       <c r="C174">
         <v>8</v>
       </c>
+      <c r="D174" t="s">
+        <v>14</v>
+      </c>
       <c r="E174" t="s">
         <v>12</v>
       </c>
@@ -4130,15 +4376,15 @@
         <v>1</v>
       </c>
       <c r="H174">
+        <v>11.5</v>
+      </c>
+      <c r="I174">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I174">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -4146,6 +4392,9 @@
       <c r="C175">
         <v>1</v>
       </c>
+      <c r="D175" t="s">
+        <v>13</v>
+      </c>
       <c r="E175" t="s">
         <v>11</v>
       </c>
@@ -4153,15 +4402,15 @@
         <v>1</v>
       </c>
       <c r="H175">
+        <v>12.3</v>
+      </c>
+      <c r="I175">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I175">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B176">
         <v>2</v>
@@ -4169,6 +4418,9 @@
       <c r="C176">
         <v>1</v>
       </c>
+      <c r="D176" t="s">
+        <v>13</v>
+      </c>
       <c r="E176" t="s">
         <v>11</v>
       </c>
@@ -4176,15 +4428,15 @@
         <v>1</v>
       </c>
       <c r="H176">
+        <v>8.1</v>
+      </c>
+      <c r="I176">
         <v>6.9</v>
       </c>
-      <c r="I176">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B177">
         <v>3</v>
@@ -4192,6 +4444,9 @@
       <c r="C177">
         <v>1</v>
       </c>
+      <c r="D177" t="s">
+        <v>13</v>
+      </c>
       <c r="E177" t="s">
         <v>11</v>
       </c>
@@ -4199,15 +4454,15 @@
         <v>1</v>
       </c>
       <c r="H177">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I177">
         <v>5.3</v>
       </c>
-      <c r="I177">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -4215,6 +4470,9 @@
       <c r="C178">
         <v>2</v>
       </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
       <c r="E178" t="s">
         <v>12</v>
       </c>
@@ -4222,21 +4480,24 @@
         <v>1</v>
       </c>
       <c r="H178">
+        <v>10.5</v>
+      </c>
+      <c r="I178">
         <v>10</v>
       </c>
-      <c r="I178">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B179">
         <v>2</v>
       </c>
       <c r="C179">
         <v>2</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
       </c>
       <c r="E179" t="s">
         <v>12</v>
@@ -4251,9 +4512,9 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -4261,6 +4522,9 @@
       <c r="C180">
         <v>2</v>
       </c>
+      <c r="D180" t="s">
+        <v>13</v>
+      </c>
       <c r="E180" t="s">
         <v>12</v>
       </c>
@@ -4268,15 +4532,15 @@
         <v>2</v>
       </c>
       <c r="H180">
+        <v>13.8</v>
+      </c>
+      <c r="I180">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I180">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B181">
         <v>3</v>
@@ -4284,6 +4548,9 @@
       <c r="C181">
         <v>2</v>
       </c>
+      <c r="D181" t="s">
+        <v>13</v>
+      </c>
       <c r="E181" t="s">
         <v>12</v>
       </c>
@@ -4291,15 +4558,15 @@
         <v>1</v>
       </c>
       <c r="H181">
+        <v>13.1</v>
+      </c>
+      <c r="I181">
         <v>7.7</v>
       </c>
-      <c r="I181">
-        <v>13.1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4307,6 +4574,9 @@
       <c r="C182">
         <v>3</v>
       </c>
+      <c r="D182" t="s">
+        <v>13</v>
+      </c>
       <c r="E182" t="s">
         <v>11</v>
       </c>
@@ -4314,15 +4584,15 @@
         <v>1</v>
       </c>
       <c r="H182">
+        <v>10.3</v>
+      </c>
+      <c r="I182">
         <v>9.4</v>
       </c>
-      <c r="I182">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -4330,6 +4600,9 @@
       <c r="C183">
         <v>3</v>
       </c>
+      <c r="D183" t="s">
+        <v>13</v>
+      </c>
       <c r="E183" t="s">
         <v>11</v>
       </c>
@@ -4337,15 +4610,15 @@
         <v>1</v>
       </c>
       <c r="H183">
+        <v>14.2</v>
+      </c>
+      <c r="I183">
         <v>10.1</v>
       </c>
-      <c r="I183">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B184">
         <v>3</v>
@@ -4353,6 +4626,9 @@
       <c r="C184">
         <v>3</v>
       </c>
+      <c r="D184" t="s">
+        <v>13</v>
+      </c>
       <c r="E184" t="s">
         <v>11</v>
       </c>
@@ -4360,15 +4636,15 @@
         <v>1</v>
       </c>
       <c r="H184">
+        <v>13.7</v>
+      </c>
+      <c r="I184">
         <v>9.3000000000000007</v>
       </c>
-      <c r="I184">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -4376,6 +4652,9 @@
       <c r="C185">
         <v>4</v>
       </c>
+      <c r="D185" t="s">
+        <v>13</v>
+      </c>
       <c r="E185" t="s">
         <v>12</v>
       </c>
@@ -4383,15 +4662,15 @@
         <v>1</v>
       </c>
       <c r="H185">
+        <v>14</v>
+      </c>
+      <c r="I185">
         <v>9.4</v>
       </c>
-      <c r="I185">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -4399,6 +4678,9 @@
       <c r="C186">
         <v>4</v>
       </c>
+      <c r="D186" t="s">
+        <v>13</v>
+      </c>
       <c r="E186" t="s">
         <v>12</v>
       </c>
@@ -4406,15 +4688,15 @@
         <v>1</v>
       </c>
       <c r="H186">
+        <v>11.7</v>
+      </c>
+      <c r="I186">
         <v>9.1999999999999993</v>
       </c>
-      <c r="I186">
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B187">
         <v>3</v>
@@ -4422,6 +4704,9 @@
       <c r="C187">
         <v>4</v>
       </c>
+      <c r="D187" t="s">
+        <v>13</v>
+      </c>
       <c r="E187" t="s">
         <v>12</v>
       </c>
@@ -4429,15 +4714,15 @@
         <v>1</v>
       </c>
       <c r="H187">
+        <v>13.6</v>
+      </c>
+      <c r="I187">
         <v>8.1999999999999993</v>
       </c>
-      <c r="I187">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -4445,6 +4730,9 @@
       <c r="C188">
         <v>5</v>
       </c>
+      <c r="D188" t="s">
+        <v>14</v>
+      </c>
       <c r="E188" t="s">
         <v>11</v>
       </c>
@@ -4458,9 +4746,9 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -4468,6 +4756,9 @@
       <c r="C189">
         <v>5</v>
       </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
       <c r="E189" t="s">
         <v>11</v>
       </c>
@@ -4481,9 +4772,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B190">
         <v>3</v>
@@ -4491,6 +4782,9 @@
       <c r="C190">
         <v>5</v>
       </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
       <c r="E190" t="s">
         <v>11</v>
       </c>
@@ -4498,15 +4792,15 @@
         <v>1</v>
       </c>
       <c r="H190">
+        <v>12.7</v>
+      </c>
+      <c r="I190">
         <v>11.2</v>
       </c>
-      <c r="I190">
-        <v>12.7</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -4514,6 +4808,9 @@
       <c r="C191">
         <v>6</v>
       </c>
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
       <c r="E191" t="s">
         <v>12</v>
       </c>
@@ -4521,15 +4818,15 @@
         <v>1</v>
       </c>
       <c r="H191">
+        <v>12</v>
+      </c>
+      <c r="I191">
         <v>8.3000000000000007</v>
       </c>
-      <c r="I191">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -4537,6 +4834,9 @@
       <c r="C192">
         <v>6</v>
       </c>
+      <c r="D192" t="s">
+        <v>14</v>
+      </c>
       <c r="E192" t="s">
         <v>12</v>
       </c>
@@ -4544,15 +4844,15 @@
         <v>1</v>
       </c>
       <c r="H192">
+        <v>14.5</v>
+      </c>
+      <c r="I192">
         <v>10.3</v>
       </c>
-      <c r="I192">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B193">
         <v>3</v>
@@ -4560,6 +4860,9 @@
       <c r="C193">
         <v>6</v>
       </c>
+      <c r="D193" t="s">
+        <v>14</v>
+      </c>
       <c r="E193" t="s">
         <v>12</v>
       </c>
@@ -4567,15 +4870,15 @@
         <v>1</v>
       </c>
       <c r="H193">
+        <v>12.5</v>
+      </c>
+      <c r="I193">
         <v>9.4</v>
       </c>
-      <c r="I193">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -4583,6 +4886,9 @@
       <c r="C194">
         <v>7</v>
       </c>
+      <c r="D194" t="s">
+        <v>14</v>
+      </c>
       <c r="E194" t="s">
         <v>11</v>
       </c>
@@ -4590,15 +4896,15 @@
         <v>1</v>
       </c>
       <c r="H194">
+        <v>14.8</v>
+      </c>
+      <c r="I194">
         <v>10</v>
       </c>
-      <c r="I194">
-        <v>14.8</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B195">
         <v>2</v>
@@ -4606,6 +4912,9 @@
       <c r="C195">
         <v>7</v>
       </c>
+      <c r="D195" t="s">
+        <v>14</v>
+      </c>
       <c r="E195" t="s">
         <v>11</v>
       </c>
@@ -4613,15 +4922,15 @@
         <v>1</v>
       </c>
       <c r="H195">
+        <v>12.3</v>
+      </c>
+      <c r="I195">
         <v>9.1</v>
       </c>
-      <c r="I195">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B196">
         <v>3</v>
@@ -4629,6 +4938,9 @@
       <c r="C196">
         <v>7</v>
       </c>
+      <c r="D196" t="s">
+        <v>14</v>
+      </c>
       <c r="E196" t="s">
         <v>11</v>
       </c>
@@ -4642,9 +4954,9 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B197">
         <v>3</v>
@@ -4652,6 +4964,9 @@
       <c r="C197">
         <v>7</v>
       </c>
+      <c r="D197" t="s">
+        <v>14</v>
+      </c>
       <c r="E197" t="s">
         <v>11</v>
       </c>
@@ -4665,9 +4980,9 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -4675,6 +4990,9 @@
       <c r="C198">
         <v>8</v>
       </c>
+      <c r="D198" t="s">
+        <v>14</v>
+      </c>
       <c r="E198" t="s">
         <v>12</v>
       </c>
@@ -4682,15 +5000,15 @@
         <v>1</v>
       </c>
       <c r="H198">
+        <v>14.6</v>
+      </c>
+      <c r="I198">
         <v>8.6</v>
       </c>
-      <c r="I198">
-        <v>14.6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -4698,6 +5016,9 @@
       <c r="C199">
         <v>8</v>
       </c>
+      <c r="D199" t="s">
+        <v>14</v>
+      </c>
       <c r="E199" t="s">
         <v>12</v>
       </c>
@@ -4705,15 +5026,15 @@
         <v>1</v>
       </c>
       <c r="H199">
+        <v>13.9</v>
+      </c>
+      <c r="I199">
         <v>10</v>
       </c>
-      <c r="I199">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
-        <v>45324</v>
+        <v>45327</v>
       </c>
       <c r="B200">
         <v>3</v>
@@ -4721,6 +5042,9 @@
       <c r="C200">
         <v>8</v>
       </c>
+      <c r="D200" t="s">
+        <v>14</v>
+      </c>
       <c r="E200" t="s">
         <v>12</v>
       </c>
@@ -4728,10 +5052,810 @@
         <v>1</v>
       </c>
       <c r="H200">
+        <v>12.4</v>
+      </c>
+      <c r="I200">
         <v>9.1</v>
       </c>
-      <c r="I200">
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+      <c r="E201" t="s">
+        <v>11</v>
+      </c>
+      <c r="F201">
+        <v>24.5</v>
+      </c>
+      <c r="G201">
+        <v>1</v>
+      </c>
+      <c r="H201">
+        <v>14</v>
+      </c>
+      <c r="I201">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J201">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>13</v>
+      </c>
+      <c r="E202" t="s">
+        <v>11</v>
+      </c>
+      <c r="F202">
+        <v>23.3</v>
+      </c>
+      <c r="G202">
+        <v>1</v>
+      </c>
+      <c r="H202">
+        <v>8.5</v>
+      </c>
+      <c r="I202">
+        <v>8.4</v>
+      </c>
+      <c r="J202">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="C203">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" t="s">
+        <v>11</v>
+      </c>
+      <c r="F203">
+        <v>26.4</v>
+      </c>
+      <c r="G203">
+        <v>1</v>
+      </c>
+      <c r="H203">
+        <v>8.6</v>
+      </c>
+      <c r="I203">
+        <v>6.6</v>
+      </c>
+      <c r="J203">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>2</v>
+      </c>
+      <c r="D204" t="s">
+        <v>13</v>
+      </c>
+      <c r="E204" t="s">
+        <v>12</v>
+      </c>
+      <c r="F204">
+        <v>28.2</v>
+      </c>
+      <c r="G204">
+        <v>1</v>
+      </c>
+      <c r="H204">
+        <v>13.3</v>
+      </c>
+      <c r="I204">
+        <v>9.5</v>
+      </c>
+      <c r="J204">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>2</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="E205" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205">
+        <v>24.6</v>
+      </c>
+      <c r="G205">
+        <v>1</v>
+      </c>
+      <c r="H205">
+        <v>10.8</v>
+      </c>
+      <c r="I205">
+        <v>9.4</v>
+      </c>
+      <c r="J205">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B206">
+        <v>2</v>
+      </c>
+      <c r="C206">
+        <v>2</v>
+      </c>
+      <c r="D206" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" t="s">
+        <v>12</v>
+      </c>
+      <c r="F206">
+        <v>24.6</v>
+      </c>
+      <c r="G206">
+        <v>2</v>
+      </c>
+      <c r="H206">
+        <v>14</v>
+      </c>
+      <c r="I206">
+        <v>10.4</v>
+      </c>
+      <c r="J206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B207">
+        <v>3</v>
+      </c>
+      <c r="C207">
+        <v>2</v>
+      </c>
+      <c r="D207" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" t="s">
+        <v>12</v>
+      </c>
+      <c r="F207">
+        <v>26.1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
+      <c r="H207">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I207">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J207">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>3</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+      <c r="E208" t="s">
+        <v>11</v>
+      </c>
+      <c r="F208">
+        <v>24.7</v>
+      </c>
+      <c r="G208">
+        <v>1</v>
+      </c>
+      <c r="H208">
         <v>12.4</v>
+      </c>
+      <c r="I208">
+        <v>10.9</v>
+      </c>
+      <c r="J208">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="E209" t="s">
+        <v>11</v>
+      </c>
+      <c r="F209">
+        <v>29</v>
+      </c>
+      <c r="G209">
+        <v>1</v>
+      </c>
+      <c r="H209">
+        <v>15.3</v>
+      </c>
+      <c r="I209">
+        <v>11.1</v>
+      </c>
+      <c r="J209">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B210">
+        <v>3</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>13</v>
+      </c>
+      <c r="E210" t="s">
+        <v>11</v>
+      </c>
+      <c r="F210">
+        <v>23.6</v>
+      </c>
+      <c r="G210">
+        <v>1</v>
+      </c>
+      <c r="H210">
+        <v>14.7</v>
+      </c>
+      <c r="I210">
+        <v>10.8</v>
+      </c>
+      <c r="J210">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>4</v>
+      </c>
+      <c r="D211" t="s">
+        <v>13</v>
+      </c>
+      <c r="E211" t="s">
+        <v>12</v>
+      </c>
+      <c r="F211">
+        <v>23.9</v>
+      </c>
+      <c r="G211">
+        <v>1</v>
+      </c>
+      <c r="H211">
+        <v>15.2</v>
+      </c>
+      <c r="I211">
+        <v>11.1</v>
+      </c>
+      <c r="J211">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>4</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212">
+        <v>24.7</v>
+      </c>
+      <c r="G212">
+        <v>1</v>
+      </c>
+      <c r="H212">
+        <v>13.8</v>
+      </c>
+      <c r="I212">
+        <v>11.4</v>
+      </c>
+      <c r="J212">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B213">
+        <v>3</v>
+      </c>
+      <c r="C213">
+        <v>4</v>
+      </c>
+      <c r="D213" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" t="s">
+        <v>12</v>
+      </c>
+      <c r="F213">
+        <v>27.1</v>
+      </c>
+      <c r="G213">
+        <v>1</v>
+      </c>
+      <c r="H213">
+        <v>14.5</v>
+      </c>
+      <c r="I213">
+        <v>10.3</v>
+      </c>
+      <c r="J213">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B214">
+        <v>1</v>
+      </c>
+      <c r="C214">
+        <v>5</v>
+      </c>
+      <c r="D214" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" t="s">
+        <v>11</v>
+      </c>
+      <c r="F214">
+        <v>24.5</v>
+      </c>
+      <c r="G214">
+        <v>1</v>
+      </c>
+      <c r="H214">
+        <v>12.8</v>
+      </c>
+      <c r="I214">
+        <v>11.7</v>
+      </c>
+      <c r="J214">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+      <c r="D215" t="s">
+        <v>14</v>
+      </c>
+      <c r="E215" t="s">
+        <v>11</v>
+      </c>
+      <c r="F215">
+        <v>26.6</v>
+      </c>
+      <c r="G215">
+        <v>1</v>
+      </c>
+      <c r="H215">
+        <v>11.5</v>
+      </c>
+      <c r="I215">
+        <v>9</v>
+      </c>
+      <c r="J215">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B216">
+        <v>3</v>
+      </c>
+      <c r="C216">
+        <v>5</v>
+      </c>
+      <c r="D216" t="s">
+        <v>14</v>
+      </c>
+      <c r="E216" t="s">
+        <v>11</v>
+      </c>
+      <c r="F216">
+        <v>30.3</v>
+      </c>
+      <c r="G216">
+        <v>1</v>
+      </c>
+      <c r="H216">
+        <v>13.7</v>
+      </c>
+      <c r="I216">
+        <v>11.9</v>
+      </c>
+      <c r="J216">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B217">
+        <v>1</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" t="s">
+        <v>12</v>
+      </c>
+      <c r="F217">
+        <v>28.4</v>
+      </c>
+      <c r="G217">
+        <v>1</v>
+      </c>
+      <c r="H217">
+        <v>14.2</v>
+      </c>
+      <c r="I217">
+        <v>10.8</v>
+      </c>
+      <c r="J217">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218" t="s">
+        <v>14</v>
+      </c>
+      <c r="E218" t="s">
+        <v>12</v>
+      </c>
+      <c r="F218">
+        <v>28.4</v>
+      </c>
+      <c r="G218">
+        <v>1</v>
+      </c>
+      <c r="H218">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I218">
+        <v>11.8</v>
+      </c>
+      <c r="J218">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B219">
+        <v>3</v>
+      </c>
+      <c r="C219">
+        <v>6</v>
+      </c>
+      <c r="D219" t="s">
+        <v>14</v>
+      </c>
+      <c r="E219" t="s">
+        <v>12</v>
+      </c>
+      <c r="F219">
+        <v>23.8</v>
+      </c>
+      <c r="G219">
+        <v>1</v>
+      </c>
+      <c r="H219">
+        <v>14.3</v>
+      </c>
+      <c r="I219">
+        <v>10.9</v>
+      </c>
+      <c r="J219">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B220">
+        <v>1</v>
+      </c>
+      <c r="C220">
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>14</v>
+      </c>
+      <c r="E220" t="s">
+        <v>11</v>
+      </c>
+      <c r="F220">
+        <v>25.1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
+      <c r="H220">
+        <v>15.7</v>
+      </c>
+      <c r="I220">
+        <v>10.1</v>
+      </c>
+      <c r="J220">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>14</v>
+      </c>
+      <c r="E221" t="s">
+        <v>11</v>
+      </c>
+      <c r="F221">
+        <v>22.9</v>
+      </c>
+      <c r="G221">
+        <v>1</v>
+      </c>
+      <c r="H221">
+        <v>14.7</v>
+      </c>
+      <c r="I221">
+        <v>9.9</v>
+      </c>
+      <c r="J221">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B222">
+        <v>3</v>
+      </c>
+      <c r="C222">
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>14</v>
+      </c>
+      <c r="E222" t="s">
+        <v>11</v>
+      </c>
+      <c r="F222">
+        <v>24.5</v>
+      </c>
+      <c r="G222">
+        <v>1</v>
+      </c>
+      <c r="H222">
+        <v>16</v>
+      </c>
+      <c r="I222">
+        <v>13.4</v>
+      </c>
+      <c r="J222">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B223">
+        <v>1</v>
+      </c>
+      <c r="C223">
+        <v>8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>14</v>
+      </c>
+      <c r="E223" t="s">
+        <v>12</v>
+      </c>
+      <c r="F223">
+        <v>25.3</v>
+      </c>
+      <c r="G223">
+        <v>1</v>
+      </c>
+      <c r="H223">
+        <v>15.5</v>
+      </c>
+      <c r="I223">
+        <v>10.8</v>
+      </c>
+      <c r="J223">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B224">
+        <v>2</v>
+      </c>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" t="s">
+        <v>12</v>
+      </c>
+      <c r="F224">
+        <v>29.5</v>
+      </c>
+      <c r="G224">
+        <v>1</v>
+      </c>
+      <c r="H224">
+        <v>13.9</v>
+      </c>
+      <c r="I224">
+        <v>12.1</v>
+      </c>
+      <c r="J224">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B225">
+        <v>3</v>
+      </c>
+      <c r="C225">
+        <v>8</v>
+      </c>
+      <c r="D225" t="s">
+        <v>14</v>
+      </c>
+      <c r="E225" t="s">
+        <v>12</v>
+      </c>
+      <c r="F225">
+        <v>28.9</v>
+      </c>
+      <c r="G225">
+        <v>1</v>
+      </c>
+      <c r="H225">
+        <v>13.8</v>
+      </c>
+      <c r="I225">
+        <v>11.1</v>
+      </c>
+      <c r="J225">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/tumor-size/AOT00054521-mimic22/AOT00054521_mimic22_tumor-size.xlsx
+++ b/data/tumor-size/AOT00054521-mimic22/AOT00054521_mimic22_tumor-size.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27424"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://osumc-my.sharepoint.com/personal/wil407_osumc_edu/Documents/BuckeyeBox Data/mimic/data/AOT00054521-mimic22/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="702" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE565E01-035A-44A5-8A38-172BEE3ADF32}"/>
+  <xr:revisionPtr revIDLastSave="730" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{105E8687-9A8F-4776-A368-42F414C4D04B}"/>
   <bookViews>
     <workbookView xWindow="-28800" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,10 +175,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,11 +476,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B161" workbookViewId="0">
-      <selection activeCell="A174" sqref="A174:XFD174"/>
+    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
+      <selection activeCell="K226" sqref="K226"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" customWidth="1"/>
@@ -497,7 +493,7 @@
     <col min="10" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>45287</v>
       </c>
@@ -546,7 +542,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>45287</v>
       </c>
@@ -560,7 +556,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>45287</v>
       </c>
@@ -574,7 +570,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>45287</v>
       </c>
@@ -588,7 +584,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>45287</v>
       </c>
@@ -602,7 +598,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>45287</v>
       </c>
@@ -616,7 +612,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>45287</v>
       </c>
@@ -630,7 +626,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>45287</v>
       </c>
@@ -644,7 +640,7 @@
         <v>20.9</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>45287</v>
       </c>
@@ -658,7 +654,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>45287</v>
       </c>
@@ -672,7 +668,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>45287</v>
       </c>
@@ -686,7 +682,7 @@
         <v>22.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>45287</v>
       </c>
@@ -700,7 +696,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>45287</v>
       </c>
@@ -714,7 +710,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>45287</v>
       </c>
@@ -728,7 +724,7 @@
         <v>23.9</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>45287</v>
       </c>
@@ -742,7 +738,7 @@
         <v>23.7</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>45287</v>
       </c>
@@ -756,7 +752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>45287</v>
       </c>
@@ -770,7 +766,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>45287</v>
       </c>
@@ -784,7 +780,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>45287</v>
       </c>
@@ -798,7 +794,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>45287</v>
       </c>
@@ -812,7 +808,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>45287</v>
       </c>
@@ -826,7 +822,7 @@
         <v>23.8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>45287</v>
       </c>
@@ -840,7 +836,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>45287</v>
       </c>
@@ -854,7 +850,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>45287</v>
       </c>
@@ -868,7 +864,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>45309</v>
       </c>
@@ -885,7 +881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>45309</v>
       </c>
@@ -902,7 +898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>45309</v>
       </c>
@@ -919,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>45309</v>
       </c>
@@ -936,7 +932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>45309</v>
       </c>
@@ -953,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>45309</v>
       </c>
@@ -970,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>45309</v>
       </c>
@@ -987,7 +983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>45309</v>
       </c>
@@ -1004,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>45309</v>
       </c>
@@ -1021,7 +1017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>45309</v>
       </c>
@@ -1038,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>45309</v>
       </c>
@@ -1055,7 +1051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>45309</v>
       </c>
@@ -1072,7 +1068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>45309</v>
       </c>
@@ -1089,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>45309</v>
       </c>
@@ -1106,7 +1102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>45309</v>
       </c>
@@ -1123,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>45309</v>
       </c>
@@ -1140,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>45309</v>
       </c>
@@ -1157,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>45309</v>
       </c>
@@ -1174,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>45309</v>
       </c>
@@ -1191,7 +1187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>45309</v>
       </c>
@@ -1208,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>45309</v>
       </c>
@@ -1225,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="2">
         <v>45309</v>
       </c>
@@ -1242,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="2">
         <v>45309</v>
       </c>
@@ -1259,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="2">
         <v>45309</v>
       </c>
@@ -1276,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="2">
         <v>45313</v>
       </c>
@@ -1296,7 +1292,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="2">
         <v>45313</v>
       </c>
@@ -1316,7 +1312,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="2">
         <v>45313</v>
       </c>
@@ -1336,7 +1332,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="2">
         <v>45313</v>
       </c>
@@ -1356,7 +1352,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="2">
         <v>45313</v>
       </c>
@@ -1376,7 +1372,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="2">
         <v>45313</v>
       </c>
@@ -1396,7 +1392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="2">
         <v>45313</v>
       </c>
@@ -1416,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="2">
         <v>45313</v>
       </c>
@@ -1436,7 +1432,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="2">
         <v>45313</v>
       </c>
@@ -1456,7 +1452,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="2">
         <v>45313</v>
       </c>
@@ -1476,7 +1472,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="2">
         <v>45313</v>
       </c>
@@ -1496,7 +1492,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="2">
         <v>45313</v>
       </c>
@@ -1516,7 +1512,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="2">
         <v>45313</v>
       </c>
@@ -1536,7 +1532,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="2">
         <v>45313</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="2">
         <v>45313</v>
       </c>
@@ -1576,7 +1572,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="2">
         <v>45313</v>
       </c>
@@ -1596,7 +1592,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9">
       <c r="A66" s="2">
         <v>45313</v>
       </c>
@@ -1616,7 +1612,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9">
       <c r="A67" s="2">
         <v>45313</v>
       </c>
@@ -1636,7 +1632,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="2">
         <v>45313</v>
       </c>
@@ -1656,7 +1652,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="2">
         <v>45313</v>
       </c>
@@ -1676,7 +1672,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="2">
         <v>45313</v>
       </c>
@@ -1696,7 +1692,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="2">
         <v>45313</v>
       </c>
@@ -1716,7 +1712,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="2">
         <v>45313</v>
       </c>
@@ -1736,7 +1732,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="2">
         <v>45313</v>
       </c>
@@ -1756,7 +1752,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="2">
         <v>45315</v>
       </c>
@@ -1782,7 +1778,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="2">
         <v>45315</v>
       </c>
@@ -1808,7 +1804,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="2">
         <v>45315</v>
       </c>
@@ -1834,7 +1830,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="2">
         <v>45315</v>
       </c>
@@ -1860,7 +1856,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="2">
         <v>45315</v>
       </c>
@@ -1886,7 +1882,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="2">
         <v>45315</v>
       </c>
@@ -1912,7 +1908,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="2">
         <v>45315</v>
       </c>
@@ -1938,7 +1934,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9">
       <c r="A81" s="2">
         <v>45315</v>
       </c>
@@ -1964,7 +1960,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9">
       <c r="A82" s="2">
         <v>45315</v>
       </c>
@@ -1990,7 +1986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="2">
         <v>45315</v>
       </c>
@@ -2016,7 +2012,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9">
       <c r="A84" s="2">
         <v>45315</v>
       </c>
@@ -2042,7 +2038,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="2">
         <v>45315</v>
       </c>
@@ -2068,7 +2064,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="2">
         <v>45315</v>
       </c>
@@ -2094,7 +2090,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9">
       <c r="A87" s="2">
         <v>45315</v>
       </c>
@@ -2120,7 +2116,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="2">
         <v>45315</v>
       </c>
@@ -2146,7 +2142,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="2">
         <v>45315</v>
       </c>
@@ -2172,7 +2168,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="2">
         <v>45315</v>
       </c>
@@ -2198,7 +2194,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="2">
         <v>45315</v>
       </c>
@@ -2224,7 +2220,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="2">
         <v>45315</v>
       </c>
@@ -2250,7 +2246,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="2">
         <v>45315</v>
       </c>
@@ -2276,7 +2272,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="2">
         <v>45315</v>
       </c>
@@ -2302,7 +2298,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="2">
         <v>45315</v>
       </c>
@@ -2328,7 +2324,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="2">
         <v>45315</v>
       </c>
@@ -2354,7 +2350,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="2">
         <v>45315</v>
       </c>
@@ -2380,7 +2376,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="2">
         <v>45318</v>
       </c>
@@ -2406,7 +2402,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="2">
         <v>45318</v>
       </c>
@@ -2432,7 +2428,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="2">
         <v>45318</v>
       </c>
@@ -2458,7 +2454,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9">
       <c r="A101" s="2">
         <v>45318</v>
       </c>
@@ -2484,7 +2480,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="2">
         <v>45318</v>
       </c>
@@ -2510,7 +2506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="2">
         <v>45318</v>
       </c>
@@ -2536,7 +2532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="2">
         <v>45318</v>
       </c>
@@ -2562,7 +2558,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="2">
         <v>45318</v>
       </c>
@@ -2588,7 +2584,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="2">
         <v>45318</v>
       </c>
@@ -2614,7 +2610,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="2">
         <v>45318</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="2">
         <v>45318</v>
       </c>
@@ -2666,7 +2662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="2">
         <v>45318</v>
       </c>
@@ -2692,7 +2688,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="2">
         <v>45318</v>
       </c>
@@ -2718,7 +2714,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="2">
         <v>45318</v>
       </c>
@@ -2744,7 +2740,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="2">
         <v>45318</v>
       </c>
@@ -2770,7 +2766,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="2">
         <v>45318</v>
       </c>
@@ -2796,7 +2792,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="2">
         <v>45318</v>
       </c>
@@ -2822,7 +2818,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="2">
         <v>45318</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="2">
         <v>45318</v>
       </c>
@@ -2874,7 +2870,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="2">
         <v>45318</v>
       </c>
@@ -2900,7 +2896,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="2">
         <v>45318</v>
       </c>
@@ -2926,7 +2922,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="2">
         <v>45318</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9">
       <c r="A120" s="2">
         <v>45318</v>
       </c>
@@ -2978,7 +2974,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9">
       <c r="A121" s="2">
         <v>45318</v>
       </c>
@@ -3004,7 +3000,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9">
       <c r="A122" s="2">
         <v>45318</v>
       </c>
@@ -3030,7 +3026,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9">
       <c r="A123" s="2">
         <v>45321</v>
       </c>
@@ -3056,7 +3052,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9">
       <c r="A124" s="2">
         <v>45321</v>
       </c>
@@ -3082,7 +3078,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9">
       <c r="A125" s="2">
         <v>45321</v>
       </c>
@@ -3108,7 +3104,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9">
       <c r="A126" s="2">
         <v>45321</v>
       </c>
@@ -3134,7 +3130,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9">
       <c r="A127" s="2">
         <v>45321</v>
       </c>
@@ -3160,7 +3156,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9">
       <c r="A128" s="2">
         <v>45321</v>
       </c>
@@ -3186,7 +3182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9">
       <c r="A129" s="2">
         <v>45321</v>
       </c>
@@ -3212,7 +3208,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9">
       <c r="A130" s="2">
         <v>45321</v>
       </c>
@@ -3238,7 +3234,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9">
       <c r="A131" s="2">
         <v>45321</v>
       </c>
@@ -3264,7 +3260,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9">
       <c r="A132" s="2">
         <v>45321</v>
       </c>
@@ -3290,7 +3286,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9">
       <c r="A133" s="2">
         <v>45321</v>
       </c>
@@ -3316,7 +3312,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9">
       <c r="A134" s="2">
         <v>45321</v>
       </c>
@@ -3342,7 +3338,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9">
       <c r="A135" s="2">
         <v>45321</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9">
       <c r="A136" s="2">
         <v>45321</v>
       </c>
@@ -3394,7 +3390,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9">
       <c r="A137" s="2">
         <v>45321</v>
       </c>
@@ -3420,7 +3416,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9">
       <c r="A138" s="2">
         <v>45321</v>
       </c>
@@ -3446,7 +3442,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9">
       <c r="A139" s="2">
         <v>45321</v>
       </c>
@@ -3472,7 +3468,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9">
       <c r="A140" s="2">
         <v>45321</v>
       </c>
@@ -3498,7 +3494,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9">
       <c r="A141" s="2">
         <v>45321</v>
       </c>
@@ -3524,7 +3520,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9">
       <c r="A142" s="2">
         <v>45321</v>
       </c>
@@ -3550,7 +3546,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9">
       <c r="A143" s="2">
         <v>45321</v>
       </c>
@@ -3576,7 +3572,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9">
       <c r="A144" s="2">
         <v>45321</v>
       </c>
@@ -3602,7 +3598,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9">
       <c r="A145" s="2">
         <v>45321</v>
       </c>
@@ -3628,7 +3624,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9">
       <c r="A146" s="2">
         <v>45321</v>
       </c>
@@ -3654,7 +3650,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9">
       <c r="A147" s="2">
         <v>45321</v>
       </c>
@@ -3680,7 +3676,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9">
       <c r="A148" s="2">
         <v>45321</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9">
       <c r="A149" s="2">
         <v>45324</v>
       </c>
@@ -3732,7 +3728,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9">
       <c r="A150" s="2">
         <v>45324</v>
       </c>
@@ -3758,7 +3754,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9">
       <c r="A151" s="2">
         <v>45324</v>
       </c>
@@ -3784,7 +3780,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9">
       <c r="A152" s="2">
         <v>45324</v>
       </c>
@@ -3810,7 +3806,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9">
       <c r="A153" s="2">
         <v>45324</v>
       </c>
@@ -3836,7 +3832,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9">
       <c r="A154" s="2">
         <v>45324</v>
       </c>
@@ -3862,7 +3858,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9">
       <c r="A155" s="2">
         <v>45324</v>
       </c>
@@ -3888,7 +3884,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9">
       <c r="A156" s="2">
         <v>45324</v>
       </c>
@@ -3914,7 +3910,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9">
       <c r="A157" s="2">
         <v>45324</v>
       </c>
@@ -3940,7 +3936,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9">
       <c r="A158" s="2">
         <v>45324</v>
       </c>
@@ -3966,7 +3962,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9">
       <c r="A159" s="2">
         <v>45324</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9">
       <c r="A160" s="2">
         <v>45324</v>
       </c>
@@ -4018,7 +4014,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9">
       <c r="A161" s="2">
         <v>45324</v>
       </c>
@@ -4044,7 +4040,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9">
       <c r="A162" s="2">
         <v>45324</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9">
       <c r="A163" s="2">
         <v>45324</v>
       </c>
@@ -4096,7 +4092,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9">
       <c r="A164" s="2">
         <v>45324</v>
       </c>
@@ -4122,7 +4118,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9">
       <c r="A165" s="2">
         <v>45324</v>
       </c>
@@ -4148,7 +4144,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9">
       <c r="A166" s="2">
         <v>45324</v>
       </c>
@@ -4174,7 +4170,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9">
       <c r="A167" s="2">
         <v>45324</v>
       </c>
@@ -4200,7 +4196,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9">
       <c r="A168" s="2">
         <v>45324</v>
       </c>
@@ -4226,7 +4222,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9">
       <c r="A169" s="2">
         <v>45324</v>
       </c>
@@ -4252,7 +4248,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9">
       <c r="A170" s="2">
         <v>45324</v>
       </c>
@@ -4278,7 +4274,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9">
       <c r="A171" s="2">
         <v>45324</v>
       </c>
@@ -4304,7 +4300,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9">
       <c r="A172" s="2">
         <v>45324</v>
       </c>
@@ -4330,7 +4326,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9">
       <c r="A173" s="2">
         <v>45324</v>
       </c>
@@ -4356,7 +4352,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9">
       <c r="A174" s="2">
         <v>45324</v>
       </c>
@@ -4382,7 +4378,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9">
       <c r="A175" s="2">
         <v>45327</v>
       </c>
@@ -4408,7 +4404,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9">
       <c r="A176" s="2">
         <v>45327</v>
       </c>
@@ -4434,7 +4430,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9">
       <c r="A177" s="2">
         <v>45327</v>
       </c>
@@ -4460,7 +4456,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9">
       <c r="A178" s="2">
         <v>45327</v>
       </c>
@@ -4480,13 +4476,13 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <v>10.5</v>
+        <v>13.1</v>
       </c>
       <c r="I178">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="2">
         <v>45327</v>
       </c>
@@ -4506,13 +4502,13 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <v>13.1</v>
+        <v>10.5</v>
       </c>
       <c r="I179">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="2">
         <v>45327</v>
       </c>
@@ -4532,13 +4528,13 @@
         <v>2</v>
       </c>
       <c r="H180">
-        <v>13.8</v>
+        <v>13.1</v>
       </c>
       <c r="I180">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="2">
         <v>45327</v>
       </c>
@@ -4558,13 +4554,13 @@
         <v>1</v>
       </c>
       <c r="H181">
-        <v>13.1</v>
+        <v>13.8</v>
       </c>
       <c r="I181">
-        <v>7.7</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="2">
         <v>45327</v>
       </c>
@@ -4590,7 +4586,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9">
       <c r="A183" s="2">
         <v>45327</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9">
       <c r="A184" s="2">
         <v>45327</v>
       </c>
@@ -4642,7 +4638,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9">
       <c r="A185" s="2">
         <v>45327</v>
       </c>
@@ -4668,7 +4664,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9">
       <c r="A186" s="2">
         <v>45327</v>
       </c>
@@ -4694,7 +4690,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9">
       <c r="A187" s="2">
         <v>45327</v>
       </c>
@@ -4720,7 +4716,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9">
       <c r="A188" s="2">
         <v>45327</v>
       </c>
@@ -4746,7 +4742,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9">
       <c r="A189" s="2">
         <v>45327</v>
       </c>
@@ -4772,7 +4768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9">
       <c r="A190" s="2">
         <v>45327</v>
       </c>
@@ -4798,7 +4794,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9">
       <c r="A191" s="2">
         <v>45327</v>
       </c>
@@ -4824,7 +4820,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9">
       <c r="A192" s="2">
         <v>45327</v>
       </c>
@@ -4850,7 +4846,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10">
       <c r="A193" s="2">
         <v>45327</v>
       </c>
@@ -4876,7 +4872,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10">
       <c r="A194" s="2">
         <v>45327</v>
       </c>
@@ -4902,7 +4898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10">
       <c r="A195" s="2">
         <v>45327</v>
       </c>
@@ -4928,7 +4924,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10">
       <c r="A196" s="2">
         <v>45327</v>
       </c>
@@ -4954,7 +4950,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10">
       <c r="A197" s="2">
         <v>45327</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10">
       <c r="A198" s="2">
         <v>45327</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10">
       <c r="A199" s="2">
         <v>45327</v>
       </c>
@@ -5032,7 +5028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10">
       <c r="A200" s="2">
         <v>45327</v>
       </c>
@@ -5058,7 +5054,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10">
       <c r="A201" s="2">
         <v>45330</v>
       </c>
@@ -5090,7 +5086,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10">
       <c r="A202" s="2">
         <v>45330</v>
       </c>
@@ -5122,7 +5118,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10">
       <c r="A203" s="2">
         <v>45330</v>
       </c>
@@ -5154,7 +5150,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10">
       <c r="A204" s="2">
         <v>45330</v>
       </c>
@@ -5186,7 +5182,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10">
       <c r="A205" s="2">
         <v>45330</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10">
       <c r="A206" s="2">
         <v>45330</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10">
       <c r="A207" s="2">
         <v>45330</v>
       </c>
@@ -5282,7 +5278,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10">
       <c r="A208" s="2">
         <v>45330</v>
       </c>
@@ -5314,7 +5310,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10">
       <c r="A209" s="2">
         <v>45330</v>
       </c>
@@ -5346,7 +5342,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10">
       <c r="A210" s="2">
         <v>45330</v>
       </c>
@@ -5378,7 +5374,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10">
       <c r="A211" s="2">
         <v>45330</v>
       </c>
@@ -5410,7 +5406,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10">
       <c r="A212" s="2">
         <v>45330</v>
       </c>
@@ -5442,7 +5438,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10">
       <c r="A213" s="2">
         <v>45330</v>
       </c>
@@ -5474,7 +5470,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10">
       <c r="A214" s="2">
         <v>45330</v>
       </c>
@@ -5506,7 +5502,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10">
       <c r="A215" s="2">
         <v>45330</v>
       </c>
@@ -5538,7 +5534,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10">
       <c r="A216" s="2">
         <v>45330</v>
       </c>
@@ -5570,7 +5566,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10">
       <c r="A217" s="2">
         <v>45330</v>
       </c>
@@ -5602,7 +5598,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10">
       <c r="A218" s="2">
         <v>45330</v>
       </c>
@@ -5634,7 +5630,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10">
       <c r="A219" s="2">
         <v>45330</v>
       </c>
@@ -5666,7 +5662,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10">
       <c r="A220" s="2">
         <v>45330</v>
       </c>
@@ -5698,7 +5694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10">
       <c r="A221" s="2">
         <v>45330</v>
       </c>
@@ -5730,7 +5726,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10">
       <c r="A222" s="2">
         <v>45330</v>
       </c>
@@ -5762,7 +5758,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10">
       <c r="A223" s="2">
         <v>45330</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10">
       <c r="A224" s="2">
         <v>45330</v>
       </c>
@@ -5826,7 +5822,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10">
       <c r="A225" s="2">
         <v>45330</v>
       </c>
